--- a/设计文档/武侠属性.xlsx
+++ b/设计文档/武侠属性.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>最小伤害</t>
   </si>
@@ -168,34 +168,27 @@
     <t>0.2+0.2*臂力/100</t>
   </si>
   <si>
-    <t>内力成长</t>
-  </si>
-  <si>
-    <t>0.3+0.3*定力/100</t>
+    <t>30+外功*气血成长</t>
+  </si>
+  <si>
+    <t>10+招式*攻击成长</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>持久</t>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外功</t>
-  </si>
-  <si>
-    <t>30+外功*气血成长</t>
-  </si>
-  <si>
-    <t>10+招式*攻击成长</t>
-  </si>
-  <si>
-    <t>30+内功</t>
-  </si>
-  <si>
-    <t>输出</t>
-  </si>
-  <si>
-    <t>持久</t>
-  </si>
-  <si>
-    <t>连击次数</t>
-  </si>
-  <si>
-    <t>内功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -203,23 +196,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10+内功</t>
+    <t>防御成长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
+    <t>防御</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战力</t>
+    <t>招式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式</t>
+    <t>挡拆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1738,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:P39"/>
+  <dimension ref="B5:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1815,7 +1804,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="4"/>
       <c r="P10" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.25">
@@ -1838,30 +1827,30 @@
       <c r="N11" s="5"/>
       <c r="O11" s="4"/>
       <c r="P11" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.25">
       <c r="B12" s="2"/>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>100</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4">
-        <v>0</v>
+      <c r="P12" s="5">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="14.25">
@@ -1905,7 +1894,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5">
         <f>1.2*P10/100+1.2</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.25">
@@ -1920,8 +1909,8 @@
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <f>0.3*H11/100+0.3</f>
-        <v>0.6</v>
+        <f>0.15*H11/100+0.15</f>
+        <v>0.3</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>48</v>
@@ -1933,37 +1922,33 @@
       <c r="N15" s="5"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5">
-        <f>0.3*P11/100+0.3</f>
+        <f>0.15*P11/100+0.15</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25">
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5">
-        <f>0.15*H12/100+0.15</f>
-        <v>0.3</v>
+        <f>0.01*H12/100+0.01</f>
+        <v>0.02</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="4"/>
       <c r="P16" s="5">
-        <f>0.15*P12/100+0.15</f>
-        <v>0.15</v>
+        <f>0.01*P12/100+0.01</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.25">
@@ -1984,7 +1969,7 @@
     <row r="18" spans="2:16" ht="14.25">
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
@@ -1994,20 +1979,20 @@
         <v>100</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="14.25">
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
@@ -2017,20 +2002,20 @@
         <v>100</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.25">
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
@@ -2040,14 +2025,14 @@
         <v>100</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="3"/>
       <c r="N20" s="5"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.25">
@@ -2072,7 +2057,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -2085,71 +2070,67 @@
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4">
         <f>120+P10*0.6+P18*P14</f>
-        <v>120</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="2"/>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4">
-        <f>30+H11*0.15+H19*H15</f>
-        <v>105</v>
+        <f>15+H11*0.075+H19*H15</f>
+        <v>52.5</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4">
-        <f>30+P11*0.15+P19*P15</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
+        <f>15+P11*0.075+P19*P15</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="14.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <f>15+H12*0.075+H20*H16</f>
-        <v>52.5</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3">
-        <f>15+P12*0.075+P20*P16</f>
-        <v>15</v>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <f>1/(1+H12*0.005+H20*H16)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4">
+        <f>1/(1+P12*0.005+P20*P16)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -2160,46 +2141,52 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="2:16" ht="14.25">
       <c r="B26" s="2"/>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D26" s="4">
-        <f>H23</f>
-        <v>105</v>
+        <f>H23*P24</f>
+        <v>15</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="K26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="7">
-        <f>P23</f>
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="L26" s="4">
+        <f>P23*H24</f>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.25">
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27" s="4">
         <f>H22/L26</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7">
         <f>P22/D26</f>
-        <v>1.1428571428571428</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:16">
@@ -2211,24 +2198,12 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="1">
-        <f>H24/H23</f>
-        <v>0.5</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="K29" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29">
-        <f>P24/P23</f>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="30" spans="2:16">
       <c r="C30" s="1"/>
@@ -2245,35 +2220,38 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="C32" s="1"/>
+      <c r="C32" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="3">
+        <f>(H22/120+H23/15+1/H24)*100</f>
+        <v>1050</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
+      <c r="K32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
+        <f>(P22/120+P23/15+1/P24)*100</f>
+        <v>1050</v>
+      </c>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="3">
-        <f>(H22/120+H23/20+H24/15)*100</f>
-        <v>1225</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="K33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3">
-        <f>P22/120+P23/20+P24/15</f>
-        <v>3.5</v>
-      </c>
     </row>
     <row r="34" spans="3:15">
       <c r="C34" s="1"/>
@@ -2284,21 +2262,13 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="3:15">
-      <c r="O36">
+      <c r="O35">
         <f>1/100</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="3:15">
-      <c r="L39">
+    <row r="38" spans="3:15">
+      <c r="L38">
         <f>0*0.01*3+3</f>
         <v>3</v>
       </c>
@@ -2306,5 +2276,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/设计文档/武侠属性.xlsx
+++ b/设计文档/武侠属性.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>最小伤害</t>
   </si>
@@ -159,22 +159,7 @@
     <t>气血成长</t>
   </si>
   <si>
-    <t>1.2+1.2*根骨/100</t>
-  </si>
-  <si>
     <t>攻击成长</t>
-  </si>
-  <si>
-    <t>0.2+0.2*臂力/100</t>
-  </si>
-  <si>
-    <t>30+外功*气血成长</t>
-  </si>
-  <si>
-    <t>10+招式*攻击成长</t>
-  </si>
-  <si>
-    <t>输出</t>
   </si>
   <si>
     <t>持久</t>
@@ -184,31 +169,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>外功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>实战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化解成长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成成长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>定力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防御成长</t>
+    <t>灵巧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防御</t>
+    <t>化解</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>招式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挡拆</t>
+    <t>受到伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +247,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,7 +277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:P38"/>
+  <dimension ref="B5:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1768,89 +1790,104 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" ht="14.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:16" ht="14.25">
       <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4"/>
       <c r="P10" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
+      <c r="C11" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5">
-        <v>100</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="4"/>
       <c r="P11" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
-        <v>57</v>
+      <c r="C12" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5">
-        <v>100</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4"/>
       <c r="P12" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="14.25">
@@ -1874,61 +1911,53 @@
         <v>46</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5">
-        <f>1.2*H10/100+1.2</f>
-        <v>2.4</v>
+        <f>1.2*H9/100+1.2</f>
+        <v>1.2</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="4"/>
       <c r="P14" s="5">
-        <f>1.2*P10/100+1.2</f>
-        <v>2.4</v>
+        <f>1.2*P9/100+1.2</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.25">
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5">
-        <f>0.15*H11/100+0.15</f>
-        <v>0.3</v>
+        <f>0.15*H10/100+0.15</f>
+        <v>0.15</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="4"/>
       <c r="P15" s="5">
-        <f>0.15*P11/100+0.15</f>
-        <v>0.3</v>
+        <f>0.15*P10/100+0.15</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="4"/>
@@ -1936,10 +1965,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5">
-        <f>0.01*H12/100+0.01</f>
-        <v>0.02</v>
-      </c>
-      <c r="K16" s="4" t="s">
+        <f>0.01*H11/100+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="L16" s="4"/>
@@ -1947,303 +1976,341 @@
       <c r="N16" s="5"/>
       <c r="O16" s="4"/>
       <c r="P16" s="5">
-        <f>0.01*P12/100+0.01</f>
-        <v>0.02</v>
+        <f>0.01*P11/100+0.01</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="K17" s="4"/>
+      <c r="H17" s="5">
+        <f>0.01*H12/100+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
+      <c r="P17" s="5">
+        <f>0.01*P12/100+0.01</f>
+        <v>0.01</v>
+      </c>
     </row>
     <row r="18" spans="2:16" ht="14.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>100</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="H18" s="5"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4">
-        <v>100</v>
-      </c>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" ht="14.25">
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>61</v>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
-        <v>100</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="3"/>
       <c r="N20" s="5"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="K21" s="4"/>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="6"/>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:16" ht="14.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
-        <v>3</v>
+      <c r="C22" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4">
-        <f>120+H10*0.6+H18*H14</f>
-        <v>420</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="M22" s="3"/>
       <c r="N22" s="5"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4">
-        <f>120+P10*0.6+P18*P14</f>
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="14.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4">
-        <f>15+H11*0.075+H19*H15</f>
-        <v>52.5</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="H23" s="6"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4">
-        <f>15+P11*0.075+P19*P15</f>
-        <v>52.5</v>
-      </c>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="14.25">
       <c r="B24" s="2"/>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4">
-        <f>1/(1+H12*0.005+H20*H16)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>59</v>
+        <f>120+H9*0.6+H19*H14</f>
+        <v>120</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4">
-        <f>1/(1+P12*0.005+P20*P16)</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
+        <f>120+P9*0.6+P19*P14</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="14.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <f>15+H10*0.075+H20*H15</f>
+        <v>15</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4">
+        <f>15+P10*0.075+P20*P15</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="2:16" ht="14.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <f>1/(1+H11*0.005+H21*H16)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4">
+        <f>1/(1+P11*0.005+P21*P16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="14.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <f>1+H12*0.005+H22*H17</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4">
+        <f>1+P12*0.005+P22*P17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="2:16" ht="14.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4">
-        <f>H23*P24</f>
+      <c r="D29" s="4">
+        <f>H25*H27</f>
         <v>15</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="K26" s="7" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="K29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="4">
-        <f>P23*H24</f>
+      <c r="L29" s="4">
+        <f>P25*P27</f>
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="14.25">
-      <c r="C27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="4">
-        <f>H22/L26</f>
-        <v>28</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="K27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="7">
-        <f>P22/D26</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="30" spans="2:16" ht="14.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4">
+        <f>L29*H26</f>
+        <v>15</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="K30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="4">
+        <f>D29*P26</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="14.25">
+      <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="7">
+        <f>H24/D30</f>
+        <v>8</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="K31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="7">
+        <f>P24/L30</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="2:16">
-      <c r="C32" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="3">
-        <f>(H22/120+H23/15+1/H24)*100</f>
-        <v>1050</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="K32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3">
-        <f>(P22/120+P23/15+1/P24)*100</f>
-        <v>1050</v>
-      </c>
     </row>
     <row r="33" spans="3:15">
       <c r="C33" s="1"/>
@@ -2262,13 +2329,60 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="3:15">
-      <c r="O35">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3">
+        <f>(H24/120+H25/15+1/H26+H27/1)*100</f>
+        <v>400</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="K36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3">
+        <f>(P24/120+P25/15+1/P26+P27/1)*100</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="O39">
         <f>1/100</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="3:15">
-      <c r="L38">
+    <row r="42" spans="3:15">
+      <c r="L42">
         <f>0*0.01*3+3</f>
         <v>3</v>
       </c>
